--- a/data-input/lichtenberg/rummelsburgerbucht.xlsx
+++ b/data-input/lichtenberg/rummelsburgerbucht.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SPK\02_SPK_extern\Datenkoordination\03_digitale BZRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/GitHub/bezirksregionenprofile-daten/data-input/lichtenberg/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3150992-B337-1A4C-A273-F237E9858C37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="barchart_beispiel" sheetId="7" r:id="rId10"/>
     <sheet name="tabelle_beispiel" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mgBXZ7XypnXxhgezlacxPfLNJ7RGg=="/>
@@ -34,18 +35,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIys
@@ -55,13 +57,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIz8
@@ -71,13 +74,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzE
@@ -87,13 +91,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzM
@@ -102,13 +107,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIyM
@@ -117,13 +123,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzU
@@ -142,18 +149,19 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIyc
@@ -175,13 +183,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIyQ
@@ -196,13 +205,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzg
@@ -212,13 +222,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIy4
@@ -227,13 +238,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzo
@@ -243,13 +255,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzk
@@ -268,12 +281,65 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F6F1174D-6418-ED41-B4CD-FE6988F85FCC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAALYKZIyI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office User    (2021-02-16 07:46:45)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zeilen und Spalten der Tabelle einfügen</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -314,19 +380,20 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIyk
@@ -335,13 +402,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzY
@@ -351,13 +419,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIz0
@@ -367,13 +436,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzc
@@ -392,19 +462,20 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIyo
@@ -414,13 +485,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIyg
@@ -430,13 +502,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzs
@@ -454,19 +527,20 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIyY
@@ -476,13 +550,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIyU
@@ -491,13 +566,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIy8
@@ -506,13 +582,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIy0
@@ -521,13 +598,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzI
@@ -545,19 +623,20 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzQ
@@ -566,13 +645,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIz4
@@ -581,13 +661,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIyw
@@ -596,13 +677,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzA
@@ -611,13 +693,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAALYKZIzw
@@ -635,24 +718,52 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
-          <t>======
-ID#AAAALYKZIyI
-Microsoft Office User    (2021-02-16 07:46:45)
-Zeilen und Spalten der Tabelle einfügen</t>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAALYKZIyI
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office User    (2021-02-16 07:46:45)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zeilen und Spalten der Tabelle einfügen</t>
         </r>
       </text>
     </comment>
@@ -666,7 +777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="1170">
   <si>
     <t>BZR Profil Erstellen:</t>
   </si>
@@ -689,6 +800,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Diese Vorlage dient zur Eingabe der Daten für ein Bezirksregionenprofil.
@@ -699,6 +811,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Die Arbeitsmappe "datenblatt" ist das zentrale Element zur Erstelleung der Inhalte: In der Reihenfolge, in der Inhalte im Bezirksregionenprofil erscheinen sollen, können hier reihenweise Inhalte eingefügt werden.
@@ -710,6 +823,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mögliche Inhalte sind dabei:</t>
     </r>
@@ -718,6 +832,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 * Titel x (titel)
@@ -737,6 +852,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Kurze Anleitung:</t>
     </r>
@@ -745,6 +861,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Titel, kleine Titel und Fließtexte können direkt über die Spalte "content" hinzugefügt werden. 
@@ -4244,18 +4361,21 @@
   <si>
     <t>Gebietseinheit</t>
   </si>
+  <si>
+    <t>11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -4268,38 +4388,45 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4310,17 +4437,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4434,7 +4564,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
   </cellStyleXfs>
@@ -4462,19 +4592,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4487,7 +4617,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4513,14 +4643,14 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyAlignment="1"/>
@@ -4529,14 +4659,14 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
-    <cellStyle name="Standard 3" xfId="3"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -4676,7 +4806,13 @@
     <xdr:ext cx="4400550" cy="2038350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png"/>
+        <xdr:cNvPr id="2" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4704,7 +4840,13 @@
     <xdr:ext cx="4362450" cy="2238375"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image4.png"/>
+        <xdr:cNvPr id="3" name="image4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4732,7 +4874,13 @@
     <xdr:ext cx="5248275" cy="2057400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image3.png"/>
+        <xdr:cNvPr id="4" name="image3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4760,7 +4908,13 @@
     <xdr:ext cx="5267325" cy="2095500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image5.png"/>
+        <xdr:cNvPr id="5" name="image5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4788,7 +4942,13 @@
     <xdr:ext cx="5362575" cy="2152650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image1.png"/>
+        <xdr:cNvPr id="6" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5006,25 +5166,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="127.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="127.5" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -14450,7 +14610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14458,14 +14618,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -16212,19 +16372,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
@@ -17373,7 +17535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -17384,12 +17546,12 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="69.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="1" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="69.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -18463,25 +18625,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -34339,10 +34501,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Klicken Sie und geben Sie einen Wert ein aus: Liste mit Elementen" sqref="B2:B1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Klicken Sie und geben Sie einen Wert ein aus: Liste mit Elementen" sqref="B2:B1005" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"titel,titel-sm,text,table,barchart,map-pr,linechart,map-poi,image"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie eine Zahl ein. zwischen 1 und 14" sqref="A2:A1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie eine Zahl ein. zwischen 1 und 14" sqref="A2:A1005" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0,11.0,12.0,13.0,14.0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -34353,44 +34515,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="41"/>
+    <col min="1" max="1" width="14.5" style="41"/>
+    <col min="2" max="2" width="19.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="B1" s="45">
+      <c r="C1" s="45">
         <v>44196</v>
       </c>
-      <c r="C1" s="45">
+      <c r="D1" s="45">
         <v>43830</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>1144</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>1145</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>1146</v>
       </c>
-      <c r="G1" s="40"/>
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
@@ -34410,74 +34577,92 @@
       <c r="X1" s="40"/>
       <c r="Y1" s="40"/>
       <c r="Z1" s="40"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="AA1" s="40"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>978</v>
       </c>
-      <c r="B2" s="48">
+      <c r="C2" s="48">
         <v>4244</v>
       </c>
-      <c r="C2" s="48">
+      <c r="D2" s="48">
         <v>4254</v>
       </c>
-      <c r="D2" s="49">
+      <c r="E2" s="49">
         <v>-0.2</v>
       </c>
-      <c r="E2" s="48">
+      <c r="F2" s="48">
         <v>821</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="G2" s="43" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>894</v>
       </c>
-      <c r="B3" s="48">
+      <c r="C3" s="48">
         <v>296837</v>
       </c>
-      <c r="C3" s="46">
+      <c r="D3" s="46">
         <v>294201</v>
       </c>
-      <c r="D3" s="50">
+      <c r="E3" s="50">
         <v>0.89598607754562898</v>
       </c>
-      <c r="E3" s="48">
+      <c r="F3" s="48">
         <v>21695</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="43" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="44" t="s">
         <v>1143</v>
       </c>
-      <c r="B4" s="48">
+      <c r="C4" s="48">
         <v>3769962</v>
       </c>
-      <c r="C4" s="46">
+      <c r="D4" s="46">
         <v>3769495</v>
       </c>
-      <c r="D4" s="50">
+      <c r="E4" s="50">
         <v>1.23889274292708E-2</v>
       </c>
-      <c r="E4" s="48">
+      <c r="F4" s="48">
         <v>159806</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="G4" s="43" t="s">
         <v>1149</v>
       </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A5" s="26"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A6" s="26"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A7" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34485,14 +34670,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="41"/>
+    <col min="1" max="1" width="19.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="14.5" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -34693,21 +34878,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="53"/>
-    <col min="3" max="3" width="14.42578125" style="53" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="53"/>
+    <col min="3" max="3" width="14.5" style="53" customWidth="1"/>
     <col min="4" max="4" width="11" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="53"/>
+    <col min="7" max="7" width="13.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
@@ -34736,7 +34921,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5">
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="54" t="s">
         <v>978</v>
       </c>
@@ -34828,7 +35013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34836,12 +35021,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -39712,7 +39897,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Klicken Sie und geben Sie einen Wert ein aus: Liste mit Elementen" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Klicken Sie und geben Sie einen Wert ein aus: Liste mit Elementen" sqref="D2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"#1E3791,#E60032,#F5F5F5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -39723,7 +39908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -39731,11 +39916,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" customWidth="1"/>
+    <col min="4" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -41662,7 +41847,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Klicken Sie und geben Sie einen Wert ein aus: Liste mit Elementen" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Klicken Sie und geben Sie einen Wert ein aus: Liste mit Elementen" sqref="D2" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"#1E3791,#E60032,#F5F5F5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -41673,7 +41858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -41681,14 +41866,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">

--- a/data-input/lichtenberg/rummelsburgerbucht.xlsx
+++ b/data-input/lichtenberg/rummelsburgerbucht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/GitHub/bezirksregionenprofile-daten/data-input/lichtenberg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3150992-B337-1A4C-A273-F237E9858C37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8CBAC9-5086-8A4E-8AA9-F7AA1311EF20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="3500" windowWidth="28800" windowHeight="11700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="1172">
   <si>
     <t>BZR Profil Erstellen:</t>
   </si>
@@ -4363,6 +4363,12 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>31.12.20</t>
+  </si>
+  <si>
+    <t>31.12.19</t>
   </si>
 </sst>
 </file>
@@ -34522,7 +34528,7 @@
   <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -34543,11 +34549,11 @@
       <c r="B1" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="C1" s="45">
-        <v>44196</v>
-      </c>
-      <c r="D1" s="45">
-        <v>43830</v>
+      <c r="C1" s="39" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>1171</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>1144</v>
